--- a/media/COMBINED SALARY OF L_T AND IDFC TW/Performance.xlsx
+++ b/media/COMBINED SALARY OF L_T AND IDFC TW/Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3635,816 +3635,6 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ANIKET</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1934964.23</v>
-      </c>
-      <c r="E36" t="n">
-        <v>63</v>
-      </c>
-      <c r="F36" t="n">
-        <v>28</v>
-      </c>
-      <c r="G36" t="n">
-        <v>35</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>910417.4300000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1024546.8</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="U36" t="n">
-        <v>52.95</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>52.95</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MANOJ TOMAR</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>581714.55</v>
-      </c>
-      <c r="E37" t="n">
-        <v>39</v>
-      </c>
-      <c r="F37" t="n">
-        <v>22</v>
-      </c>
-      <c r="G37" t="n">
-        <v>17</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>195864.97</v>
-      </c>
-      <c r="N37" t="n">
-        <v>385849.58</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="U37" t="n">
-        <v>66.33</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>66.33</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>NITIN KUMAR KHARE</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1395168.22</v>
-      </c>
-      <c r="E38" t="n">
-        <v>60</v>
-      </c>
-      <c r="F38" t="n">
-        <v>23</v>
-      </c>
-      <c r="G38" t="n">
-        <v>34</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>143569.99</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1215632.99</v>
-      </c>
-      <c r="O38" t="n">
-        <v>26955.62</v>
-      </c>
-      <c r="P38" t="n">
-        <v>9009.620000000001</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="U38" t="n">
-        <v>87.13</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>89.70999999999999</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>NO FOS</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>517563.66</v>
-      </c>
-      <c r="E39" t="n">
-        <v>14</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>13</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>500073.91</v>
-      </c>
-      <c r="O39" t="n">
-        <v>17489.75</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>96.62</v>
-      </c>
-      <c r="V39" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1041085.97</v>
-      </c>
-      <c r="E40" t="n">
-        <v>40</v>
-      </c>
-      <c r="F40" t="n">
-        <v>25</v>
-      </c>
-      <c r="G40" t="n">
-        <v>14</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>648729.46</v>
-      </c>
-      <c r="N40" t="n">
-        <v>378767.26</v>
-      </c>
-      <c r="O40" t="n">
-        <v>13589.25</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>62.31</v>
-      </c>
-      <c r="U40" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>37.69</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>SHARWAN</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1022017.83</v>
-      </c>
-      <c r="E41" t="n">
-        <v>30</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>199933.01</v>
-      </c>
-      <c r="N41" t="n">
-        <v>809574.42</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1270.98</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>11239.42</v>
-      </c>
-      <c r="T41" t="n">
-        <v>19.56</v>
-      </c>
-      <c r="U41" t="n">
-        <v>79.20999999999999</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>80.43000000000001</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SOURAV KUMAR</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1900964.06</v>
-      </c>
-      <c r="E42" t="n">
-        <v>55</v>
-      </c>
-      <c r="F42" t="n">
-        <v>23</v>
-      </c>
-      <c r="G42" t="n">
-        <v>31</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>747673.49</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1125022.38</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>28268.19</v>
-      </c>
-      <c r="T42" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="U42" t="n">
-        <v>59.18</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>60.67</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SUDHAKAR</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>837049.22</v>
-      </c>
-      <c r="E43" t="n">
-        <v>62</v>
-      </c>
-      <c r="F43" t="n">
-        <v>39</v>
-      </c>
-      <c r="G43" t="n">
-        <v>20</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>203980.77</v>
-      </c>
-      <c r="N43" t="n">
-        <v>617748.2</v>
-      </c>
-      <c r="O43" t="n">
-        <v>12693.94</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2626.31</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="U43" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>75.63</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>VIJAY KUMAR</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>272424.49</v>
-      </c>
-      <c r="E44" t="n">
-        <v>15</v>
-      </c>
-      <c r="F44" t="n">
-        <v>9</v>
-      </c>
-      <c r="G44" t="n">
-        <v>6</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>177635.46</v>
-      </c>
-      <c r="N44" t="n">
-        <v>94789.03</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="U44" t="n">
-        <v>34.79</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>34.79</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
